--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe cloud concepts/Describe the benefits of using cloud services.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe cloud concepts/Describe the benefits of using cloud services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Study\Brain\Azure\Microsoft Azure Fundamentals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Study\Brain\Azure\Microsoft Azure Fundamentals\Describe cloud concepts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C041EB-7D79-47E3-805A-EF9F4E577892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16481E44-B7FA-40A3-96E6-5F07CD0DB316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16125" yWindow="2055" windowWidth="12090" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1560" yWindow="3330" windowWidth="17460" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="high availability &amp; scalability" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,6 +165,274 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>417333</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>37496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="5523"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2619375"/>
+          <a:ext cx="14133333" cy="4561871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>179276</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB7C430-D577-7011-DD49-B1C061579993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5905500"/>
+          <a:ext cx="13590476" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8381</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B9E91B-9E37-77D9-3A83-52EC0DE7F93B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9906000"/>
+          <a:ext cx="9152381" cy="2657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>122133</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>66238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7FD1F70-B2FD-96BF-FB5C-DE109665AD54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12954000"/>
+          <a:ext cx="13533333" cy="3495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>26895</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>180619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9DC7FD-AF08-4D1C-BBB7-C14F018FFC21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16764000"/>
+          <a:ext cx="13438095" cy="2847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>560457</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>142524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD3958D-46BA-A31A-DDE3-B03F5A7A2334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19812000"/>
+          <a:ext cx="12142857" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -515,153 +790,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3CAF9F-32A5-4897-8B9A-F9DAAFCCFB0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3BE7B6-7239-4658-9D2B-4D892533A7A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
